--- a/data/zenodo_ivan/conversion/passenger/CHE_convpass_TROLLEY.xlsx
+++ b/data/zenodo_ivan/conversion/passenger/CHE_convpass_TROLLEY.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/Downloads/passenger data/done/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/conversion/passenger/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1719C11-535A-A64E-9460-2CEFB71C6C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A774C5-456F-504D-B8E6-1733782D9BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="-4880" windowWidth="21600" windowHeight="37900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="81">
   <si>
     <t>Name:</t>
   </si>
@@ -203,9 +203,6 @@
     <t>Assumption</t>
   </si>
   <si>
-    <t>Safe operational speed within cities.</t>
-  </si>
-  <si>
     <t>https://www.bfs.admin.ch/asset/fr/24085241</t>
   </si>
   <si>
@@ -270,6 +267,15 @@
   </si>
   <si>
     <t>Max(Max(actual_new_capacity*1.2),100)</t>
+  </si>
+  <si>
+    <t>Federal Office of Spatial Development, Mobility and Transport Microcensus 2021</t>
+  </si>
+  <si>
+    <t>https://www.are.admin.ch/are/en/home/mobility/data/mtmc.html</t>
+  </si>
+  <si>
+    <t>Table G3.3.1.6, same as regular buses</t>
   </si>
 </sst>
 </file>
@@ -373,7 +379,17 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -732,7 +748,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -753,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -762,7 +778,7 @@
       </c>
       <c r="B2" s="5">
         <f ca="1">TODAY()</f>
-        <v>45030</v>
+        <v>45037</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -816,7 +832,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -923,7 +939,7 @@
       </c>
       <c r="K10" s="2"/>
       <c r="L10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -952,7 +968,7 @@
       </c>
       <c r="K11" s="2"/>
       <c r="L11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1005,17 +1021,19 @@
         <v>50</v>
       </c>
       <c r="G13">
-        <v>35</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="H13" t="s">
         <v>44</v>
       </c>
       <c r="J13" t="s">
-        <v>55</v>
-      </c>
-      <c r="K13" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="L13" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1043,13 +1061,13 @@
         <v>49</v>
       </c>
       <c r="J14" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L14" t="s">
         <v>58</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L14" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1077,13 +1095,13 @@
         <v>49</v>
       </c>
       <c r="J15" t="s">
+        <v>57</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L15" t="s">
         <v>58</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L15" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -1111,13 +1129,13 @@
         <v>49</v>
       </c>
       <c r="J16" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L16" t="s">
         <v>58</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L16" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -1145,13 +1163,13 @@
         <v>49</v>
       </c>
       <c r="J17" t="s">
+        <v>57</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L17" t="s">
         <v>58</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L17" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1179,13 +1197,13 @@
         <v>49</v>
       </c>
       <c r="J18" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L18" t="s">
         <v>58</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L18" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -1213,13 +1231,13 @@
         <v>49</v>
       </c>
       <c r="J19" t="s">
+        <v>57</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L19" t="s">
         <v>58</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L19" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1247,13 +1265,13 @@
         <v>49</v>
       </c>
       <c r="J20" t="s">
+        <v>57</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L20" t="s">
         <v>58</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L20" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -1281,13 +1299,13 @@
         <v>49</v>
       </c>
       <c r="J21" t="s">
+        <v>57</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L21" t="s">
         <v>58</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L21" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -1315,13 +1333,13 @@
         <v>49</v>
       </c>
       <c r="J22" t="s">
+        <v>57</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L22" t="s">
         <v>58</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L22" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -1349,13 +1367,13 @@
         <v>49</v>
       </c>
       <c r="J23" t="s">
+        <v>57</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L23" t="s">
         <v>58</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L23" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -1383,13 +1401,13 @@
         <v>49</v>
       </c>
       <c r="J24" t="s">
+        <v>57</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L24" t="s">
         <v>58</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L24" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -1417,13 +1435,13 @@
         <v>49</v>
       </c>
       <c r="J25" t="s">
+        <v>57</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L25" t="s">
         <v>58</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L25" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -1451,13 +1469,13 @@
         <v>49</v>
       </c>
       <c r="J26" t="s">
+        <v>57</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L26" t="s">
         <v>58</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L26" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -1485,13 +1503,13 @@
         <v>49</v>
       </c>
       <c r="J27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L27" t="s">
         <v>58</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L27" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -1519,13 +1537,13 @@
         <v>49</v>
       </c>
       <c r="J28" t="s">
+        <v>57</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L28" t="s">
         <v>58</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L28" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -1553,13 +1571,13 @@
         <v>49</v>
       </c>
       <c r="J29" t="s">
+        <v>57</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L29" t="s">
         <v>58</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L29" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -1587,13 +1605,13 @@
         <v>49</v>
       </c>
       <c r="J30" t="s">
+        <v>57</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L30" t="s">
         <v>58</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L30" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -1621,13 +1639,13 @@
         <v>49</v>
       </c>
       <c r="J31" t="s">
+        <v>57</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L31" t="s">
         <v>58</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L31" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -1655,13 +1673,13 @@
         <v>49</v>
       </c>
       <c r="J32" t="s">
+        <v>57</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L32" t="s">
         <v>58</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L32" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -1689,13 +1707,13 @@
         <v>49</v>
       </c>
       <c r="J33" t="s">
+        <v>57</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L33" t="s">
         <v>58</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L33" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -1723,13 +1741,13 @@
         <v>49</v>
       </c>
       <c r="J34" t="s">
+        <v>57</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L34" t="s">
         <v>58</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L34" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -1757,13 +1775,13 @@
         <v>49</v>
       </c>
       <c r="J35" t="s">
+        <v>57</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L35" t="s">
         <v>58</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L35" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -1791,13 +1809,13 @@
         <v>49</v>
       </c>
       <c r="J36" t="s">
+        <v>57</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L36" t="s">
         <v>58</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L36" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -1825,13 +1843,13 @@
         <v>49</v>
       </c>
       <c r="J37" t="s">
+        <v>57</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L37" t="s">
         <v>58</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L37" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -1859,13 +1877,13 @@
         <v>49</v>
       </c>
       <c r="J38" t="s">
+        <v>57</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L38" t="s">
         <v>58</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L38" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -1893,13 +1911,13 @@
         <v>49</v>
       </c>
       <c r="J39" t="s">
+        <v>57</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L39" t="s">
         <v>58</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L39" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -1927,13 +1945,13 @@
         <v>49</v>
       </c>
       <c r="J40" t="s">
+        <v>57</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L40" t="s">
         <v>58</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L40" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -1961,13 +1979,13 @@
         <v>49</v>
       </c>
       <c r="J41" t="s">
+        <v>57</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L41" t="s">
         <v>58</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L41" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -1995,13 +2013,13 @@
         <v>49</v>
       </c>
       <c r="J42" t="s">
+        <v>57</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L42" t="s">
         <v>58</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L42" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
@@ -2029,13 +2047,13 @@
         <v>49</v>
       </c>
       <c r="J43" t="s">
+        <v>57</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L43" t="s">
         <v>58</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L43" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
@@ -2063,13 +2081,13 @@
         <v>49</v>
       </c>
       <c r="J44" t="s">
+        <v>57</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L44" t="s">
         <v>58</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L44" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
@@ -2097,13 +2115,13 @@
         <v>49</v>
       </c>
       <c r="J45" t="s">
+        <v>57</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L45" t="s">
         <v>58</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L45" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
@@ -2131,13 +2149,13 @@
         <v>43</v>
       </c>
       <c r="J46" t="s">
+        <v>61</v>
+      </c>
+      <c r="K46" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K46" s="2" t="s">
+      <c r="L46" t="s">
         <v>63</v>
-      </c>
-      <c r="L46" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
@@ -2165,13 +2183,13 @@
         <v>43</v>
       </c>
       <c r="J47" t="s">
+        <v>61</v>
+      </c>
+      <c r="K47" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K47" s="2" t="s">
+      <c r="L47" t="s">
         <v>63</v>
-      </c>
-      <c r="L47" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -2199,13 +2217,13 @@
         <v>43</v>
       </c>
       <c r="J48" t="s">
+        <v>61</v>
+      </c>
+      <c r="K48" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K48" s="2" t="s">
+      <c r="L48" t="s">
         <v>63</v>
-      </c>
-      <c r="L48" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
@@ -2233,13 +2251,13 @@
         <v>43</v>
       </c>
       <c r="J49" t="s">
+        <v>61</v>
+      </c>
+      <c r="K49" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K49" s="2" t="s">
+      <c r="L49" t="s">
         <v>63</v>
-      </c>
-      <c r="L49" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -2267,13 +2285,13 @@
         <v>43</v>
       </c>
       <c r="J50" t="s">
+        <v>61</v>
+      </c>
+      <c r="K50" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K50" s="2" t="s">
+      <c r="L50" t="s">
         <v>63</v>
-      </c>
-      <c r="L50" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -2301,13 +2319,13 @@
         <v>43</v>
       </c>
       <c r="J51" t="s">
+        <v>61</v>
+      </c>
+      <c r="K51" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K51" s="2" t="s">
+      <c r="L51" t="s">
         <v>63</v>
-      </c>
-      <c r="L51" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
@@ -2335,13 +2353,13 @@
         <v>43</v>
       </c>
       <c r="J52" t="s">
+        <v>61</v>
+      </c>
+      <c r="K52" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K52" s="2" t="s">
+      <c r="L52" t="s">
         <v>63</v>
-      </c>
-      <c r="L52" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
@@ -2369,13 +2387,13 @@
         <v>43</v>
       </c>
       <c r="J53" t="s">
+        <v>61</v>
+      </c>
+      <c r="K53" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K53" s="2" t="s">
+      <c r="L53" t="s">
         <v>63</v>
-      </c>
-      <c r="L53" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
@@ -2403,13 +2421,13 @@
         <v>43</v>
       </c>
       <c r="J54" t="s">
+        <v>61</v>
+      </c>
+      <c r="K54" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K54" s="2" t="s">
+      <c r="L54" t="s">
         <v>63</v>
-      </c>
-      <c r="L54" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
@@ -2437,13 +2455,13 @@
         <v>43</v>
       </c>
       <c r="J55" t="s">
+        <v>61</v>
+      </c>
+      <c r="K55" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K55" s="2" t="s">
+      <c r="L55" t="s">
         <v>63</v>
-      </c>
-      <c r="L55" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
@@ -2471,13 +2489,13 @@
         <v>43</v>
       </c>
       <c r="J56" t="s">
+        <v>61</v>
+      </c>
+      <c r="K56" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K56" s="2" t="s">
+      <c r="L56" t="s">
         <v>63</v>
-      </c>
-      <c r="L56" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
@@ -2505,13 +2523,13 @@
         <v>43</v>
       </c>
       <c r="J57" t="s">
+        <v>61</v>
+      </c>
+      <c r="K57" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K57" s="2" t="s">
+      <c r="L57" t="s">
         <v>63</v>
-      </c>
-      <c r="L57" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
@@ -2539,13 +2557,13 @@
         <v>43</v>
       </c>
       <c r="J58" t="s">
+        <v>61</v>
+      </c>
+      <c r="K58" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K58" s="2" t="s">
+      <c r="L58" t="s">
         <v>63</v>
-      </c>
-      <c r="L58" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
@@ -2573,13 +2591,13 @@
         <v>43</v>
       </c>
       <c r="J59" t="s">
+        <v>61</v>
+      </c>
+      <c r="K59" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K59" s="2" t="s">
+      <c r="L59" t="s">
         <v>63</v>
-      </c>
-      <c r="L59" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
@@ -2607,13 +2625,13 @@
         <v>43</v>
       </c>
       <c r="J60" t="s">
+        <v>61</v>
+      </c>
+      <c r="K60" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K60" s="2" t="s">
+      <c r="L60" t="s">
         <v>63</v>
-      </c>
-      <c r="L60" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
@@ -2641,13 +2659,13 @@
         <v>43</v>
       </c>
       <c r="J61" t="s">
+        <v>61</v>
+      </c>
+      <c r="K61" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K61" s="2" t="s">
+      <c r="L61" t="s">
         <v>63</v>
-      </c>
-      <c r="L61" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
@@ -2675,13 +2693,13 @@
         <v>43</v>
       </c>
       <c r="J62" t="s">
+        <v>61</v>
+      </c>
+      <c r="K62" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K62" s="2" t="s">
+      <c r="L62" t="s">
         <v>63</v>
-      </c>
-      <c r="L62" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
@@ -2709,13 +2727,13 @@
         <v>43</v>
       </c>
       <c r="J63" t="s">
+        <v>61</v>
+      </c>
+      <c r="K63" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K63" s="2" t="s">
+      <c r="L63" t="s">
         <v>63</v>
-      </c>
-      <c r="L63" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
@@ -2743,13 +2761,13 @@
         <v>43</v>
       </c>
       <c r="J64" t="s">
+        <v>61</v>
+      </c>
+      <c r="K64" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K64" s="2" t="s">
+      <c r="L64" t="s">
         <v>63</v>
-      </c>
-      <c r="L64" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
@@ -2777,13 +2795,13 @@
         <v>43</v>
       </c>
       <c r="J65" t="s">
+        <v>61</v>
+      </c>
+      <c r="K65" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K65" s="2" t="s">
+      <c r="L65" t="s">
         <v>63</v>
-      </c>
-      <c r="L65" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
@@ -2811,13 +2829,13 @@
         <v>43</v>
       </c>
       <c r="J66" t="s">
+        <v>61</v>
+      </c>
+      <c r="K66" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K66" s="2" t="s">
+      <c r="L66" t="s">
         <v>63</v>
-      </c>
-      <c r="L66" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
@@ -2845,13 +2863,13 @@
         <v>43</v>
       </c>
       <c r="J67" t="s">
+        <v>61</v>
+      </c>
+      <c r="K67" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K67" s="2" t="s">
+      <c r="L67" t="s">
         <v>63</v>
-      </c>
-      <c r="L67" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
@@ -2879,13 +2897,13 @@
         <v>43</v>
       </c>
       <c r="J68" t="s">
+        <v>61</v>
+      </c>
+      <c r="K68" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K68" s="2" t="s">
+      <c r="L68" t="s">
         <v>63</v>
-      </c>
-      <c r="L68" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
@@ -2913,13 +2931,13 @@
         <v>43</v>
       </c>
       <c r="J69" t="s">
+        <v>61</v>
+      </c>
+      <c r="K69" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K69" s="2" t="s">
+      <c r="L69" t="s">
         <v>63</v>
-      </c>
-      <c r="L69" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
@@ -2947,13 +2965,13 @@
         <v>43</v>
       </c>
       <c r="J70" t="s">
+        <v>61</v>
+      </c>
+      <c r="K70" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K70" s="2" t="s">
+      <c r="L70" t="s">
         <v>63</v>
-      </c>
-      <c r="L70" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
@@ -2981,13 +2999,13 @@
         <v>43</v>
       </c>
       <c r="J71" t="s">
+        <v>61</v>
+      </c>
+      <c r="K71" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K71" s="2" t="s">
+      <c r="L71" t="s">
         <v>63</v>
-      </c>
-      <c r="L71" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
@@ -3015,13 +3033,13 @@
         <v>43</v>
       </c>
       <c r="J72" t="s">
+        <v>61</v>
+      </c>
+      <c r="K72" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K72" s="2" t="s">
+      <c r="L72" t="s">
         <v>63</v>
-      </c>
-      <c r="L72" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
@@ -3049,13 +3067,13 @@
         <v>43</v>
       </c>
       <c r="J73" t="s">
+        <v>61</v>
+      </c>
+      <c r="K73" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K73" s="2" t="s">
+      <c r="L73" t="s">
         <v>63</v>
-      </c>
-      <c r="L73" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
@@ -3083,13 +3101,13 @@
         <v>43</v>
       </c>
       <c r="J74" t="s">
+        <v>61</v>
+      </c>
+      <c r="K74" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K74" s="2" t="s">
+      <c r="L74" t="s">
         <v>63</v>
-      </c>
-      <c r="L74" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
@@ -3117,13 +3135,13 @@
         <v>43</v>
       </c>
       <c r="J75" t="s">
+        <v>61</v>
+      </c>
+      <c r="K75" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K75" s="2" t="s">
+      <c r="L75" t="s">
         <v>63</v>
-      </c>
-      <c r="L75" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
@@ -3151,13 +3169,13 @@
         <v>43</v>
       </c>
       <c r="J76" t="s">
+        <v>61</v>
+      </c>
+      <c r="K76" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K76" s="2" t="s">
+      <c r="L76" t="s">
         <v>63</v>
-      </c>
-      <c r="L76" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
@@ -3189,7 +3207,7 @@
       </c>
       <c r="K77" s="2"/>
       <c r="L77" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
@@ -3221,7 +3239,7 @@
       </c>
       <c r="K78" s="2"/>
       <c r="L78" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
@@ -3253,7 +3271,7 @@
       </c>
       <c r="K79" s="2"/>
       <c r="L79" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
@@ -3285,7 +3303,7 @@
       </c>
       <c r="K80" s="2"/>
       <c r="L80" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
@@ -3317,7 +3335,7 @@
       </c>
       <c r="K81" s="2"/>
       <c r="L81" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
@@ -3349,7 +3367,7 @@
       </c>
       <c r="K82" s="2"/>
       <c r="L82" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
@@ -3381,7 +3399,7 @@
       </c>
       <c r="K83" s="2"/>
       <c r="L83" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
@@ -3413,7 +3431,7 @@
       </c>
       <c r="K84" s="2"/>
       <c r="L84" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
@@ -3445,7 +3463,7 @@
       </c>
       <c r="K85" s="2"/>
       <c r="L85" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
@@ -3477,7 +3495,7 @@
       </c>
       <c r="K86" s="2"/>
       <c r="L86" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
@@ -3509,7 +3527,7 @@
       </c>
       <c r="K87" s="2"/>
       <c r="L87" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
@@ -3541,7 +3559,7 @@
       </c>
       <c r="K88" s="2"/>
       <c r="L88" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
@@ -3573,7 +3591,7 @@
       </c>
       <c r="K89" s="2"/>
       <c r="L89" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
@@ -3605,7 +3623,7 @@
       </c>
       <c r="K90" s="2"/>
       <c r="L90" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
@@ -3637,7 +3655,7 @@
       </c>
       <c r="K91" s="2"/>
       <c r="L91" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
@@ -3669,7 +3687,7 @@
       </c>
       <c r="K92" s="2"/>
       <c r="L92" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
@@ -3701,7 +3719,7 @@
       </c>
       <c r="K93" s="2"/>
       <c r="L93" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
@@ -3733,7 +3751,7 @@
       </c>
       <c r="K94" s="2"/>
       <c r="L94" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
@@ -3765,7 +3783,7 @@
       </c>
       <c r="K95" s="2"/>
       <c r="L95" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
@@ -3797,7 +3815,7 @@
       </c>
       <c r="K96" s="2"/>
       <c r="L96" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
@@ -3829,7 +3847,7 @@
       </c>
       <c r="K97" s="2"/>
       <c r="L97" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
@@ -3861,7 +3879,7 @@
       </c>
       <c r="K98" s="2"/>
       <c r="L98" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
@@ -3893,7 +3911,7 @@
       </c>
       <c r="K99" s="2"/>
       <c r="L99" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
@@ -3925,7 +3943,7 @@
       </c>
       <c r="K100" s="2"/>
       <c r="L100" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
@@ -3957,7 +3975,7 @@
       </c>
       <c r="K101" s="2"/>
       <c r="L101" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
@@ -3989,7 +4007,7 @@
       </c>
       <c r="K102" s="2"/>
       <c r="L102" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
@@ -4021,7 +4039,7 @@
       </c>
       <c r="K103" s="2"/>
       <c r="L103" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
@@ -4053,7 +4071,7 @@
       </c>
       <c r="K104" s="2"/>
       <c r="L104" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
@@ -4085,7 +4103,7 @@
       </c>
       <c r="K105" s="2"/>
       <c r="L105" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
@@ -4117,7 +4135,7 @@
       </c>
       <c r="K106" s="2"/>
       <c r="L106" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
@@ -4148,7 +4166,7 @@
         <v>55</v>
       </c>
       <c r="L107" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
@@ -4179,7 +4197,7 @@
         <v>55</v>
       </c>
       <c r="L108" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
@@ -4210,7 +4228,7 @@
         <v>55</v>
       </c>
       <c r="L109" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
@@ -4241,7 +4259,7 @@
         <v>55</v>
       </c>
       <c r="L110" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
@@ -4272,7 +4290,7 @@
         <v>55</v>
       </c>
       <c r="L111" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
@@ -4303,7 +4321,7 @@
         <v>55</v>
       </c>
       <c r="L112" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
@@ -4334,7 +4352,7 @@
         <v>55</v>
       </c>
       <c r="L113" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
@@ -4365,7 +4383,7 @@
         <v>55</v>
       </c>
       <c r="L114" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
@@ -4396,7 +4414,7 @@
         <v>55</v>
       </c>
       <c r="L115" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
@@ -4427,7 +4445,7 @@
         <v>55</v>
       </c>
       <c r="L116" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
@@ -4458,7 +4476,7 @@
         <v>55</v>
       </c>
       <c r="L117" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
@@ -4489,7 +4507,7 @@
         <v>55</v>
       </c>
       <c r="L118" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
@@ -4520,7 +4538,7 @@
         <v>55</v>
       </c>
       <c r="L119" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
@@ -4551,7 +4569,7 @@
         <v>55</v>
       </c>
       <c r="L120" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
@@ -4582,7 +4600,7 @@
         <v>55</v>
       </c>
       <c r="L121" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
@@ -4613,7 +4631,7 @@
         <v>55</v>
       </c>
       <c r="L122" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
@@ -4644,7 +4662,7 @@
         <v>55</v>
       </c>
       <c r="L123" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
@@ -4675,7 +4693,7 @@
         <v>55</v>
       </c>
       <c r="L124" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
@@ -4706,7 +4724,7 @@
         <v>55</v>
       </c>
       <c r="L125" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
@@ -4737,7 +4755,7 @@
         <v>55</v>
       </c>
       <c r="L126" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
@@ -4768,7 +4786,7 @@
         <v>55</v>
       </c>
       <c r="L127" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
@@ -4799,7 +4817,7 @@
         <v>55</v>
       </c>
       <c r="L128" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
@@ -4830,7 +4848,7 @@
         <v>55</v>
       </c>
       <c r="L129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
@@ -4861,7 +4879,7 @@
         <v>55</v>
       </c>
       <c r="L130" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
@@ -4892,7 +4910,7 @@
         <v>55</v>
       </c>
       <c r="L131" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
@@ -4923,7 +4941,7 @@
         <v>55</v>
       </c>
       <c r="L132" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
@@ -4954,7 +4972,7 @@
         <v>55</v>
       </c>
       <c r="L133" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
@@ -4985,7 +5003,7 @@
         <v>55</v>
       </c>
       <c r="L134" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
@@ -5016,7 +5034,7 @@
         <v>55</v>
       </c>
       <c r="L135" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
@@ -5047,7 +5065,7 @@
         <v>55</v>
       </c>
       <c r="L136" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
@@ -5110,10 +5128,10 @@
         <v>0</v>
       </c>
       <c r="H139" t="s">
+        <v>67</v>
+      </c>
+      <c r="L139" t="s">
         <v>68</v>
-      </c>
-      <c r="L139" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
@@ -6262,7 +6280,7 @@
         <v>680000</v>
       </c>
       <c r="H199" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J199" t="s">
         <v>53</v>
@@ -6271,7 +6289,7 @@
         <v>52</v>
       </c>
       <c r="L199" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.2">
@@ -6886,7 +6904,7 @@
         <v>96000</v>
       </c>
       <c r="H231" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J231" t="s">
         <v>53</v>
@@ -6895,7 +6913,7 @@
         <v>52</v>
       </c>
       <c r="L231" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.2">
@@ -9385,16 +9403,16 @@
         <v>9.0619047619047627E-2</v>
       </c>
       <c r="H328" t="s">
+        <v>72</v>
+      </c>
+      <c r="J328" t="s">
+        <v>61</v>
+      </c>
+      <c r="K328" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L328" t="s">
         <v>73</v>
-      </c>
-      <c r="J328" t="s">
-        <v>62</v>
-      </c>
-      <c r="K328" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L328" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.2">
@@ -9515,16 +9533,16 @@
         <v>9.3483552631578953E-2</v>
       </c>
       <c r="H333" t="s">
+        <v>72</v>
+      </c>
+      <c r="J333" t="s">
+        <v>61</v>
+      </c>
+      <c r="K333" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L333" t="s">
         <v>73</v>
-      </c>
-      <c r="J333" t="s">
-        <v>62</v>
-      </c>
-      <c r="K333" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L333" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.2">
@@ -9646,16 +9664,16 @@
         <v>9.170404984423676E-2</v>
       </c>
       <c r="H338" t="s">
+        <v>72</v>
+      </c>
+      <c r="J338" t="s">
+        <v>61</v>
+      </c>
+      <c r="K338" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L338" t="s">
         <v>73</v>
-      </c>
-      <c r="J338" t="s">
-        <v>62</v>
-      </c>
-      <c r="K338" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L338" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="339" spans="1:12" x14ac:dyDescent="0.2">
@@ -9684,16 +9702,16 @@
         <v>8.8368749999999996E-2</v>
       </c>
       <c r="H339" t="s">
+        <v>72</v>
+      </c>
+      <c r="J339" t="s">
+        <v>61</v>
+      </c>
+      <c r="K339" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L339" t="s">
         <v>73</v>
-      </c>
-      <c r="J339" t="s">
-        <v>62</v>
-      </c>
-      <c r="K339" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L339" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.2">
@@ -9722,16 +9740,16 @@
         <v>8.9836065573770482E-2</v>
       </c>
       <c r="H340" t="s">
+        <v>72</v>
+      </c>
+      <c r="J340" t="s">
+        <v>61</v>
+      </c>
+      <c r="K340" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L340" t="s">
         <v>73</v>
-      </c>
-      <c r="J340" t="s">
-        <v>62</v>
-      </c>
-      <c r="K340" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L340" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.2">
@@ -9760,16 +9778,16 @@
         <v>8.9016393442622951E-2</v>
       </c>
       <c r="H341" t="s">
+        <v>72</v>
+      </c>
+      <c r="J341" t="s">
+        <v>61</v>
+      </c>
+      <c r="K341" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L341" t="s">
         <v>73</v>
-      </c>
-      <c r="J341" t="s">
-        <v>62</v>
-      </c>
-      <c r="K341" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L341" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.2">
@@ -9798,16 +9816,16 @@
         <v>0.1</v>
       </c>
       <c r="H342" t="s">
+        <v>72</v>
+      </c>
+      <c r="J342" t="s">
+        <v>61</v>
+      </c>
+      <c r="K342" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L342" t="s">
         <v>73</v>
-      </c>
-      <c r="J342" t="s">
-        <v>62</v>
-      </c>
-      <c r="K342" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L342" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.2">
@@ -9836,16 +9854,16 @@
         <v>8.9571428571428566E-2</v>
       </c>
       <c r="H343" t="s">
+        <v>72</v>
+      </c>
+      <c r="J343" t="s">
+        <v>61</v>
+      </c>
+      <c r="K343" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L343" t="s">
         <v>73</v>
-      </c>
-      <c r="J343" t="s">
-        <v>62</v>
-      </c>
-      <c r="K343" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L343" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.2">
@@ -9874,16 +9892,16 @@
         <v>8.6964052287581695E-2</v>
       </c>
       <c r="H344" t="s">
+        <v>72</v>
+      </c>
+      <c r="J344" t="s">
+        <v>61</v>
+      </c>
+      <c r="K344" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L344" t="s">
         <v>73</v>
-      </c>
-      <c r="J344" t="s">
-        <v>62</v>
-      </c>
-      <c r="K344" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L344" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.2">
@@ -9912,16 +9930,16 @@
         <v>8.8208904109589051E-2</v>
       </c>
       <c r="H345" t="s">
+        <v>72</v>
+      </c>
+      <c r="J345" t="s">
+        <v>61</v>
+      </c>
+      <c r="K345" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L345" t="s">
         <v>73</v>
-      </c>
-      <c r="J345" t="s">
-        <v>62</v>
-      </c>
-      <c r="K345" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L345" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.2">
@@ -9950,16 +9968,16 @@
         <v>9.0420338983050852E-2</v>
       </c>
       <c r="H346" t="s">
+        <v>72</v>
+      </c>
+      <c r="J346" t="s">
+        <v>61</v>
+      </c>
+      <c r="K346" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L346" t="s">
         <v>73</v>
-      </c>
-      <c r="J346" t="s">
-        <v>62</v>
-      </c>
-      <c r="K346" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L346" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.2">
@@ -9988,16 +10006,16 @@
         <v>9.152542372881356E-2</v>
       </c>
       <c r="H347" t="s">
+        <v>72</v>
+      </c>
+      <c r="J347" t="s">
+        <v>61</v>
+      </c>
+      <c r="K347" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L347" t="s">
         <v>73</v>
-      </c>
-      <c r="J347" t="s">
-        <v>62</v>
-      </c>
-      <c r="K347" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L347" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.2">
@@ -10026,16 +10044,16 @@
         <v>8.6261980830670923E-2</v>
       </c>
       <c r="H348" t="s">
+        <v>72</v>
+      </c>
+      <c r="J348" t="s">
+        <v>61</v>
+      </c>
+      <c r="K348" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L348" t="s">
         <v>73</v>
-      </c>
-      <c r="J348" t="s">
-        <v>62</v>
-      </c>
-      <c r="K348" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L348" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.2">
@@ -10064,16 +10082,16 @@
         <v>9.1874999999999998E-2</v>
       </c>
       <c r="H349" t="s">
+        <v>72</v>
+      </c>
+      <c r="J349" t="s">
+        <v>61</v>
+      </c>
+      <c r="K349" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L349" t="s">
         <v>73</v>
-      </c>
-      <c r="J349" t="s">
-        <v>62</v>
-      </c>
-      <c r="K349" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L349" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.2">
@@ -10102,16 +10120,16 @@
         <v>9.7535211267605629E-2</v>
       </c>
       <c r="H350" t="s">
+        <v>72</v>
+      </c>
+      <c r="J350" t="s">
+        <v>61</v>
+      </c>
+      <c r="K350" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L350" t="s">
         <v>73</v>
-      </c>
-      <c r="J350" t="s">
-        <v>62</v>
-      </c>
-      <c r="K350" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L350" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.2">
@@ -10140,16 +10158,16 @@
         <v>9.6526315789473696E-2</v>
       </c>
       <c r="H351" t="s">
+        <v>72</v>
+      </c>
+      <c r="J351" t="s">
+        <v>61</v>
+      </c>
+      <c r="K351" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L351" t="s">
         <v>73</v>
-      </c>
-      <c r="J351" t="s">
-        <v>62</v>
-      </c>
-      <c r="K351" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L351" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.2">
@@ -10178,16 +10196,16 @@
         <v>0.10014814814814814</v>
       </c>
       <c r="H352" t="s">
+        <v>72</v>
+      </c>
+      <c r="J352" t="s">
+        <v>61</v>
+      </c>
+      <c r="K352" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L352" t="s">
         <v>73</v>
-      </c>
-      <c r="J352" t="s">
-        <v>62</v>
-      </c>
-      <c r="K352" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L352" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.2">
@@ -10216,16 +10234,16 @@
         <v>9.9742647058823519E-2</v>
       </c>
       <c r="H353" t="s">
+        <v>72</v>
+      </c>
+      <c r="J353" t="s">
+        <v>61</v>
+      </c>
+      <c r="K353" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L353" t="s">
         <v>73</v>
-      </c>
-      <c r="J353" t="s">
-        <v>62</v>
-      </c>
-      <c r="K353" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L353" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.2">
@@ -10254,16 +10272,16 @@
         <v>9.9778597785977863E-2</v>
       </c>
       <c r="H354" t="s">
+        <v>72</v>
+      </c>
+      <c r="J354" t="s">
+        <v>61</v>
+      </c>
+      <c r="K354" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L354" t="s">
         <v>73</v>
-      </c>
-      <c r="J354" t="s">
-        <v>62</v>
-      </c>
-      <c r="K354" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L354" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.2">
@@ -10292,16 +10310,16 @@
         <v>9.8678571428571421E-2</v>
       </c>
       <c r="H355" t="s">
+        <v>72</v>
+      </c>
+      <c r="J355" t="s">
+        <v>61</v>
+      </c>
+      <c r="K355" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L355" t="s">
         <v>73</v>
-      </c>
-      <c r="J355" t="s">
-        <v>62</v>
-      </c>
-      <c r="K355" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L355" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.2">
@@ -10330,16 +10348,16 @@
         <v>0.10214022140221402</v>
       </c>
       <c r="H356" t="s">
+        <v>72</v>
+      </c>
+      <c r="J356" t="s">
+        <v>61</v>
+      </c>
+      <c r="K356" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L356" t="s">
         <v>73</v>
-      </c>
-      <c r="J356" t="s">
-        <v>62</v>
-      </c>
-      <c r="K356" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L356" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.2">
@@ -10368,16 +10386,16 @@
         <v>0.10491119691119691</v>
       </c>
       <c r="H357" t="s">
+        <v>72</v>
+      </c>
+      <c r="J357" t="s">
+        <v>61</v>
+      </c>
+      <c r="K357" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L357" t="s">
         <v>73</v>
-      </c>
-      <c r="J357" t="s">
-        <v>62</v>
-      </c>
-      <c r="K357" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L357" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.2">
@@ -10406,16 +10424,16 @@
         <v>0.10980161943319837</v>
       </c>
       <c r="H358" t="s">
+        <v>72</v>
+      </c>
+      <c r="J358" t="s">
+        <v>61</v>
+      </c>
+      <c r="K358" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L358" t="s">
         <v>73</v>
-      </c>
-      <c r="J358" t="s">
-        <v>62</v>
-      </c>
-      <c r="K358" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L358" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.2">
@@ -10444,16 +10462,16 @@
         <v>0.10546975088967972</v>
       </c>
       <c r="H359" t="s">
+        <v>72</v>
+      </c>
+      <c r="J359" t="s">
+        <v>61</v>
+      </c>
+      <c r="K359" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L359" t="s">
         <v>73</v>
-      </c>
-      <c r="J359" t="s">
-        <v>62</v>
-      </c>
-      <c r="K359" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L359" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.2">
@@ -10481,13 +10499,13 @@
         <v>47</v>
       </c>
       <c r="J360" t="s">
+        <v>74</v>
+      </c>
+      <c r="K360" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K360" s="2" t="s">
+      <c r="L360" t="s">
         <v>76</v>
-      </c>
-      <c r="L360" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.2">
@@ -10515,13 +10533,13 @@
         <v>47</v>
       </c>
       <c r="J361" t="s">
+        <v>74</v>
+      </c>
+      <c r="K361" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K361" s="2" t="s">
+      <c r="L361" t="s">
         <v>76</v>
-      </c>
-      <c r="L361" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.2">
@@ -10549,13 +10567,13 @@
         <v>47</v>
       </c>
       <c r="J362" t="s">
+        <v>74</v>
+      </c>
+      <c r="K362" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K362" s="2" t="s">
+      <c r="L362" t="s">
         <v>76</v>
-      </c>
-      <c r="L362" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.2">
@@ -10583,13 +10601,13 @@
         <v>47</v>
       </c>
       <c r="J363" t="s">
+        <v>74</v>
+      </c>
+      <c r="K363" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K363" s="2" t="s">
+      <c r="L363" t="s">
         <v>76</v>
-      </c>
-      <c r="L363" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.2">
@@ -10617,13 +10635,13 @@
         <v>47</v>
       </c>
       <c r="J364" t="s">
+        <v>74</v>
+      </c>
+      <c r="K364" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K364" s="2" t="s">
+      <c r="L364" t="s">
         <v>76</v>
-      </c>
-      <c r="L364" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.2">
@@ -10651,13 +10669,13 @@
         <v>47</v>
       </c>
       <c r="J365" t="s">
+        <v>74</v>
+      </c>
+      <c r="K365" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K365" s="2" t="s">
+      <c r="L365" t="s">
         <v>76</v>
-      </c>
-      <c r="L365" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.2">
@@ -10685,13 +10703,13 @@
         <v>47</v>
       </c>
       <c r="J366" t="s">
+        <v>74</v>
+      </c>
+      <c r="K366" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K366" s="2" t="s">
+      <c r="L366" t="s">
         <v>76</v>
-      </c>
-      <c r="L366" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.2">
@@ -10719,13 +10737,13 @@
         <v>47</v>
       </c>
       <c r="J367" t="s">
+        <v>74</v>
+      </c>
+      <c r="K367" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K367" s="2" t="s">
+      <c r="L367" t="s">
         <v>76</v>
-      </c>
-      <c r="L367" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.2">
@@ -10756,13 +10774,13 @@
         <v>47</v>
       </c>
       <c r="J368" t="s">
+        <v>74</v>
+      </c>
+      <c r="K368" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K368" s="2" t="s">
+      <c r="L368" t="s">
         <v>76</v>
-      </c>
-      <c r="L368" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.2">
@@ -10793,13 +10811,13 @@
         <v>47</v>
       </c>
       <c r="J369" t="s">
+        <v>74</v>
+      </c>
+      <c r="K369" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K369" s="2" t="s">
+      <c r="L369" t="s">
         <v>76</v>
-      </c>
-      <c r="L369" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.2">
@@ -10830,13 +10848,13 @@
         <v>47</v>
       </c>
       <c r="J370" t="s">
+        <v>74</v>
+      </c>
+      <c r="K370" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K370" s="2" t="s">
+      <c r="L370" t="s">
         <v>76</v>
-      </c>
-      <c r="L370" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.2">
@@ -10867,13 +10885,13 @@
         <v>47</v>
       </c>
       <c r="J371" t="s">
+        <v>74</v>
+      </c>
+      <c r="K371" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K371" s="2" t="s">
+      <c r="L371" t="s">
         <v>76</v>
-      </c>
-      <c r="L371" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.2">
@@ -10904,13 +10922,13 @@
         <v>47</v>
       </c>
       <c r="J372" t="s">
+        <v>74</v>
+      </c>
+      <c r="K372" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K372" s="2" t="s">
+      <c r="L372" t="s">
         <v>76</v>
-      </c>
-      <c r="L372" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.2">
@@ -10941,13 +10959,13 @@
         <v>47</v>
       </c>
       <c r="J373" t="s">
+        <v>74</v>
+      </c>
+      <c r="K373" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K373" s="2" t="s">
+      <c r="L373" t="s">
         <v>76</v>
-      </c>
-      <c r="L373" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.2">
@@ -10978,13 +10996,13 @@
         <v>47</v>
       </c>
       <c r="J374" t="s">
+        <v>74</v>
+      </c>
+      <c r="K374" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K374" s="2" t="s">
+      <c r="L374" t="s">
         <v>76</v>
-      </c>
-      <c r="L374" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.2">
@@ -11015,13 +11033,13 @@
         <v>47</v>
       </c>
       <c r="J375" t="s">
+        <v>74</v>
+      </c>
+      <c r="K375" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K375" s="2" t="s">
+      <c r="L375" t="s">
         <v>76</v>
-      </c>
-      <c r="L375" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.2">
@@ -11052,13 +11070,13 @@
         <v>47</v>
       </c>
       <c r="J376" t="s">
+        <v>74</v>
+      </c>
+      <c r="K376" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K376" s="2" t="s">
+      <c r="L376" t="s">
         <v>76</v>
-      </c>
-      <c r="L376" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.2">
@@ -11089,13 +11107,13 @@
         <v>47</v>
       </c>
       <c r="J377" t="s">
+        <v>74</v>
+      </c>
+      <c r="K377" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K377" s="2" t="s">
+      <c r="L377" t="s">
         <v>76</v>
-      </c>
-      <c r="L377" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.2">
@@ -11126,13 +11144,13 @@
         <v>47</v>
       </c>
       <c r="J378" t="s">
+        <v>74</v>
+      </c>
+      <c r="K378" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K378" s="2" t="s">
+      <c r="L378" t="s">
         <v>76</v>
-      </c>
-      <c r="L378" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.2">
@@ -11163,13 +11181,13 @@
         <v>47</v>
       </c>
       <c r="J379" t="s">
+        <v>74</v>
+      </c>
+      <c r="K379" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K379" s="2" t="s">
+      <c r="L379" t="s">
         <v>76</v>
-      </c>
-      <c r="L379" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.2">
@@ -11200,13 +11218,13 @@
         <v>47</v>
       </c>
       <c r="J380" t="s">
+        <v>74</v>
+      </c>
+      <c r="K380" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K380" s="2" t="s">
+      <c r="L380" t="s">
         <v>76</v>
-      </c>
-      <c r="L380" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.2">
@@ -11237,13 +11255,13 @@
         <v>47</v>
       </c>
       <c r="J381" t="s">
+        <v>74</v>
+      </c>
+      <c r="K381" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K381" s="2" t="s">
+      <c r="L381" t="s">
         <v>76</v>
-      </c>
-      <c r="L381" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.2">
@@ -11274,13 +11292,13 @@
         <v>47</v>
       </c>
       <c r="J382" t="s">
+        <v>74</v>
+      </c>
+      <c r="K382" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K382" s="2" t="s">
+      <c r="L382" t="s">
         <v>76</v>
-      </c>
-      <c r="L382" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.2">
@@ -11311,13 +11329,13 @@
         <v>47</v>
       </c>
       <c r="J383" t="s">
+        <v>74</v>
+      </c>
+      <c r="K383" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K383" s="2" t="s">
+      <c r="L383" t="s">
         <v>76</v>
-      </c>
-      <c r="L383" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.2">
@@ -11348,13 +11366,13 @@
         <v>47</v>
       </c>
       <c r="J384" t="s">
+        <v>74</v>
+      </c>
+      <c r="K384" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K384" s="2" t="s">
+      <c r="L384" t="s">
         <v>76</v>
-      </c>
-      <c r="L384" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="385" spans="1:12" x14ac:dyDescent="0.2">
@@ -11385,13 +11403,13 @@
         <v>47</v>
       </c>
       <c r="J385" t="s">
+        <v>74</v>
+      </c>
+      <c r="K385" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K385" s="2" t="s">
+      <c r="L385" t="s">
         <v>76</v>
-      </c>
-      <c r="L385" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="386" spans="1:12" x14ac:dyDescent="0.2">
@@ -11422,13 +11440,13 @@
         <v>47</v>
       </c>
       <c r="J386" t="s">
+        <v>74</v>
+      </c>
+      <c r="K386" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K386" s="2" t="s">
+      <c r="L386" t="s">
         <v>76</v>
-      </c>
-      <c r="L386" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="387" spans="1:12" x14ac:dyDescent="0.2">
@@ -11459,13 +11477,13 @@
         <v>47</v>
       </c>
       <c r="J387" t="s">
+        <v>74</v>
+      </c>
+      <c r="K387" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K387" s="2" t="s">
+      <c r="L387" t="s">
         <v>76</v>
-      </c>
-      <c r="L387" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="388" spans="1:12" x14ac:dyDescent="0.2">
@@ -11496,13 +11514,13 @@
         <v>47</v>
       </c>
       <c r="J388" t="s">
+        <v>74</v>
+      </c>
+      <c r="K388" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K388" s="2" t="s">
+      <c r="L388" t="s">
         <v>76</v>
-      </c>
-      <c r="L388" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="389" spans="1:12" x14ac:dyDescent="0.2">
@@ -11533,13 +11551,13 @@
         <v>47</v>
       </c>
       <c r="J389" t="s">
+        <v>74</v>
+      </c>
+      <c r="K389" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K389" s="2" t="s">
+      <c r="L389" t="s">
         <v>76</v>
-      </c>
-      <c r="L389" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="390" spans="1:12" x14ac:dyDescent="0.2">
@@ -11570,13 +11588,13 @@
         <v>47</v>
       </c>
       <c r="J390" t="s">
+        <v>74</v>
+      </c>
+      <c r="K390" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K390" s="2" t="s">
+      <c r="L390" t="s">
         <v>76</v>
-      </c>
-      <c r="L390" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="391" spans="1:12" x14ac:dyDescent="0.2">
@@ -11607,24 +11625,29 @@
         <v>47</v>
       </c>
       <c r="J391" t="s">
+        <v>74</v>
+      </c>
+      <c r="K391" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K391" s="2" t="s">
+      <c r="L391" t="s">
         <v>76</v>
-      </c>
-      <c r="L391" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A5:L801" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A6:L12 A13:K13">
+  <conditionalFormatting sqref="A6:L12 A13:I13">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"TODO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:L391">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"TODO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14:L391">
+  <conditionalFormatting sqref="J13:L13">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"TODO"</formula>
     </cfRule>
